--- a/Jogos_da_Semana_FlashScore_2025-03-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-17.xlsx
@@ -1570,22 +1570,22 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="H8" t="n">
         <v>3.25</v>
       </c>
       <c r="I8" t="n">
-        <v>2.38</v>
+        <v>2.45</v>
       </c>
       <c r="J8" t="n">
         <v>3.6</v>
       </c>
       <c r="K8" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L8" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M8" t="n">
         <v>1.07</v>
@@ -1602,10 +1602,10 @@
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="T8" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr"/>
@@ -1622,16 +1622,16 @@
         <v>2.63</v>
       </c>
       <c r="AA8" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AB8" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AC8" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE8" t="n">
         <v>11</v>
@@ -1649,7 +1649,7 @@
         <v>9</v>
       </c>
       <c r="AJ8" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AK8" t="n">
         <v>15</v>
@@ -1664,10 +1664,10 @@
         <v>8</v>
       </c>
       <c r="AO8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP8" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AQ8" t="n">
         <v>23</v>
@@ -1852,65 +1852,65 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="H10" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="I10" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="J10" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="K10" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="L10" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="M10" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>7.3</v>
+        <v>7</v>
       </c>
       <c r="O10" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="P10" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T10" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="X10" t="n">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="Z10" t="n">
-        <v>2.67</v>
+        <v>2.77</v>
       </c>
       <c r="AA10" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="AB10" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="AC10" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AD10" t="n">
         <v>9.25</v>
@@ -1919,34 +1919,34 @@
         <v>8.5</v>
       </c>
       <c r="AF10" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AG10" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AH10" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AI10" t="n">
-        <v>7.3</v>
+        <v>7</v>
       </c>
       <c r="AJ10" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AK10" t="n">
         <v>14.5</v>
       </c>
       <c r="AL10" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AM10" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AN10" t="n">
-        <v>10.75</v>
+        <v>10</v>
       </c>
       <c r="AO10" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AP10" t="n">
         <v>12</v>
@@ -1958,7 +1958,7 @@
         <v>32</v>
       </c>
       <c r="AS10" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11">
@@ -1993,13 +1993,13 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H11" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I11" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J11" t="n">
         <v>2.88</v>
@@ -2008,13 +2008,13 @@
         <v>2.2</v>
       </c>
       <c r="L11" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M11" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N11" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O11" t="n">
         <v>1.25</v>
@@ -2025,36 +2025,36 @@
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="T11" t="n">
-        <v>2.03</v>
+        <v>1.95</v>
       </c>
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="X11" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="Z11" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AA11" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="AB11" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AC11" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE11" t="n">
         <v>9</v>
@@ -2066,10 +2066,10 @@
         <v>17</v>
       </c>
       <c r="AH11" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ11" t="n">
         <v>6.5</v>
@@ -2081,7 +2081,7 @@
         <v>41</v>
       </c>
       <c r="AM11" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AN11" t="n">
         <v>11</v>
@@ -2090,7 +2090,7 @@
         <v>17</v>
       </c>
       <c r="AP11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AQ11" t="n">
         <v>34</v>
@@ -2099,7 +2099,7 @@
         <v>23</v>
       </c>
       <c r="AS11" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12">

--- a/Jogos_da_Semana_FlashScore_2025-03-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-17.xlsx
@@ -841,19 +841,19 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H3" t="n">
         <v>2.88</v>
       </c>
       <c r="I3" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J3" t="n">
         <v>3</v>
       </c>
       <c r="K3" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="L3" t="n">
         <v>5</v>
@@ -883,7 +883,7 @@
         <v>1.36</v>
       </c>
       <c r="U3" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="V3" t="n">
         <v>1.15</v>
@@ -955,7 +955,7 @@
         <v>41</v>
       </c>
       <c r="AS3" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4">
@@ -1163,10 +1163,10 @@
         <v>5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="P5" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="Q5" t="n">
         <v>2.05</v>
@@ -1175,13 +1175,13 @@
         <v>1.8</v>
       </c>
       <c r="S5" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="T5" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="U5" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="V5" t="n">
         <v>1.11</v>
@@ -1309,7 +1309,7 @@
         <v>1.17</v>
       </c>
       <c r="N6" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="O6" t="n">
         <v>1.67</v>
@@ -1337,7 +1337,7 @@
         <v>1.73</v>
       </c>
       <c r="Z6" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AA6" t="n">
         <v>2.63</v>
@@ -1570,42 +1570,42 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.88</v>
+        <v>2.6</v>
       </c>
       <c r="H8" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I8" t="n">
-        <v>2.45</v>
+        <v>2.7</v>
       </c>
       <c r="J8" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="K8" t="n">
         <v>2.05</v>
       </c>
       <c r="L8" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M8" t="n">
         <v>1.07</v>
       </c>
       <c r="N8" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O8" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P8" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="T8" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr"/>
@@ -1628,16 +1628,16 @@
         <v>1.83</v>
       </c>
       <c r="AC8" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF8" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG8" t="n">
         <v>23</v>
@@ -1646,7 +1646,7 @@
         <v>34</v>
       </c>
       <c r="AI8" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AJ8" t="n">
         <v>6</v>
@@ -1658,25 +1658,25 @@
         <v>51</v>
       </c>
       <c r="AM8" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AN8" t="n">
         <v>8</v>
       </c>
       <c r="AO8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AQ8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AR8" t="n">
         <v>23</v>
       </c>
-      <c r="AR8" t="n">
-        <v>21</v>
-      </c>
       <c r="AS8" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9">
@@ -1852,39 +1852,39 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.95</v>
+        <v>2.12</v>
       </c>
       <c r="H10" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I10" t="n">
-        <v>3.5</v>
+        <v>3.15</v>
       </c>
       <c r="J10" t="n">
-        <v>2.55</v>
+        <v>2.75</v>
       </c>
       <c r="K10" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="L10" t="n">
-        <v>4</v>
+        <v>3.65</v>
       </c>
       <c r="M10" t="n">
         <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="O10" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P10" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="T10" t="n">
         <v>1.75</v>
@@ -1892,16 +1892,16 @@
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="X10" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="Z10" t="n">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="AA10" t="n">
         <v>1.8</v>
@@ -1910,28 +1910,28 @@
         <v>1.91</v>
       </c>
       <c r="AC10" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AD10" t="n">
-        <v>9.25</v>
+        <v>10</v>
       </c>
       <c r="AE10" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AF10" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="AG10" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AH10" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AI10" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AJ10" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AK10" t="n">
         <v>14.5</v>
@@ -1943,22 +1943,22 @@
         <v>600</v>
       </c>
       <c r="AN10" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AO10" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP10" t="n">
-        <v>12</v>
+        <v>11.25</v>
       </c>
       <c r="AQ10" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AR10" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AS10" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11">
@@ -1993,31 +1993,31 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="H11" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I11" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="J11" t="n">
-        <v>2.88</v>
+        <v>2.63</v>
       </c>
       <c r="K11" t="n">
         <v>2.2</v>
       </c>
       <c r="L11" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M11" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N11" t="n">
         <v>11</v>
       </c>
       <c r="O11" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P11" t="n">
         <v>3.75</v>
@@ -2025,10 +2025,10 @@
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="T11" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
@@ -2036,13 +2036,13 @@
         <v>3.25</v>
       </c>
       <c r="X11" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Z11" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AA11" t="n">
         <v>1.73</v>
@@ -2051,16 +2051,16 @@
         <v>2</v>
       </c>
       <c r="AC11" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE11" t="n">
         <v>9</v>
       </c>
       <c r="AF11" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG11" t="n">
         <v>17</v>
@@ -2087,16 +2087,16 @@
         <v>11</v>
       </c>
       <c r="AO11" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP11" t="n">
         <v>12</v>
       </c>
       <c r="AQ11" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR11" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AS11" t="n">
         <v>34</v>
@@ -2152,22 +2152,22 @@
         <v>4.75</v>
       </c>
       <c r="M12" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="N12" t="n">
         <v>6.5</v>
       </c>
       <c r="O12" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P12" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="Q12" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="R12" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="S12" t="n">
         <v>2.6</v>
@@ -2181,7 +2181,7 @@
         <v>5.5</v>
       </c>
       <c r="X12" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="Y12" t="n">
         <v>1.57</v>
@@ -2279,31 +2279,31 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="H13" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I13" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="J13" t="n">
         <v>3.4</v>
       </c>
       <c r="K13" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L13" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M13" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N13" t="n">
         <v>10</v>
       </c>
       <c r="O13" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P13" t="n">
         <v>3.25</v>
@@ -2322,7 +2322,7 @@
         <v>3.75</v>
       </c>
       <c r="X13" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="Y13" t="n">
         <v>1.44</v>
@@ -2370,10 +2370,10 @@
         <v>251</v>
       </c>
       <c r="AN13" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AO13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP13" t="n">
         <v>10</v>
@@ -2382,7 +2382,7 @@
         <v>26</v>
       </c>
       <c r="AR13" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AS13" t="n">
         <v>34</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-17.xlsx
@@ -841,19 +841,19 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H3" t="n">
         <v>2.88</v>
       </c>
       <c r="I3" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J3" t="n">
         <v>3</v>
       </c>
       <c r="K3" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="L3" t="n">
         <v>5</v>
@@ -889,10 +889,10 @@
         <v>1.15</v>
       </c>
       <c r="W3" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X3" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="Y3" t="n">
         <v>1.67</v>
@@ -955,7 +955,7 @@
         <v>41</v>
       </c>
       <c r="AS3" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4">
@@ -990,13 +990,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I4" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J4" t="n">
         <v>3.4</v>
@@ -1008,10 +1008,10 @@
         <v>3.75</v>
       </c>
       <c r="M4" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N4" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O4" t="n">
         <v>1.5</v>
@@ -1062,10 +1062,10 @@
         <v>11</v>
       </c>
       <c r="AE4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF4" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG4" t="n">
         <v>23</v>
@@ -1077,7 +1077,7 @@
         <v>6.5</v>
       </c>
       <c r="AJ4" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AK4" t="n">
         <v>17</v>
@@ -1145,7 +1145,7 @@
         <v>2.8</v>
       </c>
       <c r="I5" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="J5" t="n">
         <v>4</v>
@@ -1163,10 +1163,10 @@
         <v>5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="P5" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="Q5" t="n">
         <v>2.05</v>
@@ -1175,13 +1175,13 @@
         <v>1.8</v>
       </c>
       <c r="S5" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="T5" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="U5" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="V5" t="n">
         <v>1.11</v>
@@ -1208,7 +1208,7 @@
         <v>5.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AE5" t="n">
         <v>13</v>
@@ -1223,7 +1223,7 @@
         <v>51</v>
       </c>
       <c r="AI5" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AJ5" t="n">
         <v>6</v>
@@ -1306,10 +1306,10 @@
         <v>5.5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="N6" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="O6" t="n">
         <v>1.67</v>
@@ -1337,7 +1337,7 @@
         <v>1.73</v>
       </c>
       <c r="Z6" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AA6" t="n">
         <v>2.63</v>
@@ -1461,18 +1461,18 @@
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="T7" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X7" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="Y7" t="n">
         <v>1.73</v>
@@ -1591,21 +1591,21 @@
         <v>1.07</v>
       </c>
       <c r="N8" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O8" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P8" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="T8" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr"/>
@@ -1711,28 +1711,28 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="H9" t="n">
         <v>3.2</v>
       </c>
       <c r="I9" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="J9" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K9" t="n">
         <v>2.05</v>
       </c>
       <c r="L9" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M9" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O9" t="n">
         <v>1.36</v>
@@ -1763,10 +1763,10 @@
         <v>2.5</v>
       </c>
       <c r="AA9" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AB9" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AC9" t="n">
         <v>7</v>
@@ -1781,7 +1781,7 @@
         <v>21</v>
       </c>
       <c r="AG9" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH9" t="n">
         <v>34</v>
@@ -1805,7 +1805,7 @@
         <v>9</v>
       </c>
       <c r="AO9" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP9" t="n">
         <v>12</v>
@@ -1852,22 +1852,22 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="H10" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I10" t="n">
         <v>3.2</v>
       </c>
-      <c r="I10" t="n">
-        <v>3.15</v>
-      </c>
       <c r="J10" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="K10" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="L10" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="M10" t="n">
         <v>1.07</v>
@@ -1898,10 +1898,10 @@
         <v>1.28</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="Z10" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="AA10" t="n">
         <v>1.8</v>
@@ -1919,10 +1919,10 @@
         <v>8.75</v>
       </c>
       <c r="AF10" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AG10" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AH10" t="n">
         <v>30</v>
@@ -1952,10 +1952,10 @@
         <v>11.25</v>
       </c>
       <c r="AQ10" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AR10" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AS10" t="n">
         <v>37</v>
@@ -2011,13 +2011,13 @@
         <v>4</v>
       </c>
       <c r="M11" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N11" t="n">
         <v>11</v>
       </c>
       <c r="O11" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P11" t="n">
         <v>3.75</v>
@@ -2025,10 +2025,10 @@
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="n">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="T11" t="n">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
@@ -2036,7 +2036,7 @@
         <v>3.25</v>
       </c>
       <c r="X11" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="Y11" t="n">
         <v>1.36</v>
@@ -2152,22 +2152,22 @@
         <v>4.75</v>
       </c>
       <c r="M12" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N12" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O12" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P12" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="R12" t="n">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="S12" t="n">
         <v>2.6</v>
@@ -2181,7 +2181,7 @@
         <v>5.5</v>
       </c>
       <c r="X12" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="Y12" t="n">
         <v>1.57</v>
@@ -2279,16 +2279,16 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="H13" t="n">
         <v>3.1</v>
       </c>
       <c r="I13" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="J13" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K13" t="n">
         <v>2.05</v>
@@ -2297,13 +2297,13 @@
         <v>3.4</v>
       </c>
       <c r="M13" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N13" t="n">
         <v>10</v>
       </c>
       <c r="O13" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P13" t="n">
         <v>3.25</v>
@@ -2322,7 +2322,7 @@
         <v>3.75</v>
       </c>
       <c r="X13" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="Y13" t="n">
         <v>1.44</v>
@@ -2337,10 +2337,10 @@
         <v>1.91</v>
       </c>
       <c r="AC13" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE13" t="n">
         <v>10</v>
@@ -2349,7 +2349,7 @@
         <v>26</v>
       </c>
       <c r="AG13" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AH13" t="n">
         <v>34</v>
@@ -2376,7 +2376,7 @@
         <v>13</v>
       </c>
       <c r="AP13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AQ13" t="n">
         <v>26</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-17.xlsx
@@ -692,13 +692,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H2" t="n">
         <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J2" t="n">
         <v>3.1</v>
@@ -722,10 +722,10 @@
         <v>2.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R2" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S2" t="n">
         <v>2.6</v>
@@ -734,16 +734,16 @@
         <v>1.48</v>
       </c>
       <c r="U2" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="V2" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="W2" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="X2" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="Y2" t="n">
         <v>1.57</v>
@@ -770,7 +770,7 @@
         <v>21</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AH2" t="n">
         <v>41</v>
@@ -794,7 +794,7 @@
         <v>8</v>
       </c>
       <c r="AO2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP2" t="n">
         <v>13</v>
@@ -841,28 +841,28 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H3" t="n">
         <v>2.88</v>
       </c>
       <c r="I3" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J3" t="n">
         <v>3</v>
       </c>
       <c r="K3" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="L3" t="n">
         <v>5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="N3" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="O3" t="n">
         <v>1.67</v>
@@ -877,10 +877,10 @@
         <v>1.78</v>
       </c>
       <c r="S3" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="T3" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="U3" t="n">
         <v>5.6</v>
@@ -895,10 +895,10 @@
         <v>1.1</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="Z3" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AA3" t="n">
         <v>2.5</v>
@@ -913,7 +913,7 @@
         <v>8</v>
       </c>
       <c r="AE3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF3" t="n">
         <v>19</v>
@@ -993,7 +993,7 @@
         <v>2.55</v>
       </c>
       <c r="H4" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="I4" t="n">
         <v>3.2</v>
@@ -1005,7 +1005,7 @@
         <v>1.91</v>
       </c>
       <c r="L4" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M4" t="n">
         <v>1.11</v>
@@ -1014,46 +1014,46 @@
         <v>6.5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P4" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.93</v>
+        <v>2.03</v>
       </c>
       <c r="R4" t="n">
-        <v>1.93</v>
+        <v>1.83</v>
       </c>
       <c r="S4" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="T4" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="U4" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="V4" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="W4" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="X4" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="Z4" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AA4" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AB4" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="AC4" t="n">
         <v>6.5</v>
@@ -1068,19 +1068,19 @@
         <v>26</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AH4" t="n">
         <v>41</v>
       </c>
       <c r="AI4" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AJ4" t="n">
         <v>5.5</v>
       </c>
       <c r="AK4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL4" t="n">
         <v>67</v>
@@ -1089,7 +1089,7 @@
         <v>501</v>
       </c>
       <c r="AN4" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AO4" t="n">
         <v>13</v>
@@ -1139,16 +1139,16 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="H5" t="n">
         <v>2.8</v>
       </c>
       <c r="I5" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="J5" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K5" t="n">
         <v>1.73</v>
@@ -1208,13 +1208,13 @@
         <v>5.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE5" t="n">
         <v>13</v>
       </c>
       <c r="AF5" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG5" t="n">
         <v>34</v>
@@ -1250,7 +1250,7 @@
         <v>34</v>
       </c>
       <c r="AR5" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AS5" t="n">
         <v>51</v>
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="H6" t="n">
         <v>2.8</v>
       </c>
       <c r="I6" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J6" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K6" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="L6" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M6" t="n">
         <v>1.14</v>
@@ -1346,16 +1346,16 @@
         <v>1.44</v>
       </c>
       <c r="AC6" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE6" t="n">
         <v>11</v>
       </c>
       <c r="AF6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG6" t="n">
         <v>23</v>
@@ -1370,22 +1370,22 @@
         <v>6</v>
       </c>
       <c r="AK6" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AL6" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AM6" t="n">
         <v>101</v>
       </c>
       <c r="AN6" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AO6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP6" t="n">
         <v>21</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>19</v>
       </c>
       <c r="AQ6" t="n">
         <v>51</v>
@@ -1461,24 +1461,24 @@
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="T7" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X7" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="Y7" t="n">
         <v>1.73</v>
       </c>
       <c r="Z7" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AA7" t="n">
         <v>2.5</v>
@@ -1570,28 +1570,28 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="H8" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="J8" t="n">
         <v>3.2</v>
-      </c>
-      <c r="I8" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="J8" t="n">
-        <v>3.4</v>
       </c>
       <c r="K8" t="n">
         <v>2.05</v>
       </c>
       <c r="L8" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M8" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O8" t="n">
         <v>1.33</v>
@@ -1602,10 +1602,10 @@
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="T8" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr"/>
@@ -1628,19 +1628,19 @@
         <v>1.83</v>
       </c>
       <c r="AC8" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE8" t="n">
         <v>10</v>
       </c>
       <c r="AF8" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AH8" t="n">
         <v>34</v>
@@ -1661,7 +1661,7 @@
         <v>301</v>
       </c>
       <c r="AN8" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AO8" t="n">
         <v>13</v>
@@ -1670,7 +1670,7 @@
         <v>11</v>
       </c>
       <c r="AQ8" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR8" t="n">
         <v>23</v>
@@ -1735,18 +1735,18 @@
         <v>8</v>
       </c>
       <c r="O9" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P9" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="T9" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr"/>
@@ -1852,113 +1852,113 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H10" t="n">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="I10" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="J10" t="n">
-        <v>2.7</v>
+        <v>2.77</v>
       </c>
       <c r="K10" t="n">
-        <v>2.15</v>
+        <v>2.02</v>
       </c>
       <c r="L10" t="n">
-        <v>3.7</v>
+        <v>3.95</v>
       </c>
       <c r="M10" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="N10" t="n">
-        <v>6.9</v>
+        <v>5.9</v>
       </c>
       <c r="O10" t="n">
-        <v>1.33</v>
+        <v>1.45</v>
       </c>
       <c r="P10" t="n">
-        <v>3.05</v>
+        <v>2.57</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="n">
-        <v>1.98</v>
+        <v>2.3</v>
       </c>
       <c r="T10" t="n">
-        <v>1.75</v>
+        <v>1.55</v>
       </c>
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="n">
-        <v>3.35</v>
+        <v>4.05</v>
       </c>
       <c r="X10" t="n">
-        <v>1.28</v>
+        <v>1.2</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="Z10" t="n">
-        <v>2.77</v>
+        <v>2.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AB10" t="n">
-        <v>1.91</v>
+        <v>1.72</v>
       </c>
       <c r="AC10" t="n">
-        <v>7.1</v>
+        <v>6.2</v>
       </c>
       <c r="AD10" t="n">
-        <v>10</v>
+        <v>9.25</v>
       </c>
       <c r="AE10" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="AF10" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AG10" t="n">
+        <v>20</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>37</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AK10" t="n">
         <v>17.5</v>
       </c>
-      <c r="AH10" t="n">
-        <v>30</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AL10" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="AM10" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="AN10" t="n">
-        <v>9.5</v>
+        <v>7.9</v>
       </c>
       <c r="AO10" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AP10" t="n">
-        <v>11.25</v>
+        <v>12.5</v>
       </c>
       <c r="AQ10" t="n">
         <v>45</v>
       </c>
       <c r="AR10" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="AS10" t="n">
-        <v>37</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11">
@@ -1993,13 +1993,13 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H11" t="n">
         <v>3.5</v>
       </c>
       <c r="I11" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J11" t="n">
         <v>2.63</v>
@@ -2025,10 +2025,10 @@
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="T11" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
@@ -2060,10 +2060,10 @@
         <v>9</v>
       </c>
       <c r="AF11" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG11" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH11" t="n">
         <v>26</v>
@@ -2072,7 +2072,7 @@
         <v>11</v>
       </c>
       <c r="AJ11" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AK11" t="n">
         <v>13</v>
@@ -2158,16 +2158,16 @@
         <v>7</v>
       </c>
       <c r="O12" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P12" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="R12" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="S12" t="n">
         <v>2.6</v>
@@ -2279,16 +2279,16 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="H13" t="n">
         <v>3.1</v>
       </c>
       <c r="I13" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="J13" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K13" t="n">
         <v>2.05</v>
@@ -2337,10 +2337,10 @@
         <v>1.91</v>
       </c>
       <c r="AC13" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE13" t="n">
         <v>10</v>
@@ -2349,7 +2349,7 @@
         <v>26</v>
       </c>
       <c r="AG13" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH13" t="n">
         <v>34</v>
@@ -2376,7 +2376,7 @@
         <v>13</v>
       </c>
       <c r="AP13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AQ13" t="n">
         <v>26</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-17.xlsx
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H2" t="n">
         <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="J2" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K2" t="n">
         <v>1.91</v>
       </c>
       <c r="L2" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O2" t="n">
         <v>1.5</v>
@@ -722,10 +722,10 @@
         <v>2.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R2" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="S2" t="n">
         <v>2.6</v>
@@ -740,10 +740,10 @@
         <v>1.22</v>
       </c>
       <c r="W2" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="X2" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="Y2" t="n">
         <v>1.57</v>
@@ -761,7 +761,7 @@
         <v>6</v>
       </c>
       <c r="AD2" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AE2" t="n">
         <v>10</v>
@@ -806,7 +806,7 @@
         <v>34</v>
       </c>
       <c r="AS2" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
@@ -841,13 +841,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H3" t="n">
         <v>2.88</v>
       </c>
       <c r="I3" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="J3" t="n">
         <v>3</v>
@@ -859,10 +859,10 @@
         <v>5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N3" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="O3" t="n">
         <v>1.67</v>
@@ -877,10 +877,10 @@
         <v>1.78</v>
       </c>
       <c r="S3" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="T3" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="U3" t="n">
         <v>5.6</v>
@@ -889,16 +889,16 @@
         <v>1.15</v>
       </c>
       <c r="W3" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X3" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="Z3" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AA3" t="n">
         <v>2.5</v>
@@ -910,7 +910,7 @@
         <v>5</v>
       </c>
       <c r="AD3" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE3" t="n">
         <v>11</v>
@@ -955,7 +955,7 @@
         <v>41</v>
       </c>
       <c r="AS3" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4">
@@ -990,19 +990,19 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.55</v>
+        <v>2.63</v>
       </c>
       <c r="H4" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="I4" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J4" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K4" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="L4" t="n">
         <v>4</v>
@@ -1020,10 +1020,10 @@
         <v>2.38</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="R4" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S4" t="n">
         <v>2.7</v>
@@ -1032,10 +1032,10 @@
         <v>1.44</v>
       </c>
       <c r="U4" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="V4" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="W4" t="n">
         <v>5.5</v>
@@ -1050,13 +1050,13 @@
         <v>2.2</v>
       </c>
       <c r="AA4" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AB4" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AC4" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AD4" t="n">
         <v>11</v>
@@ -1083,7 +1083,7 @@
         <v>19</v>
       </c>
       <c r="AL4" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AM4" t="n">
         <v>501</v>
@@ -1238,10 +1238,10 @@
         <v>101</v>
       </c>
       <c r="AN5" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AO5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP5" t="n">
         <v>13</v>
@@ -1570,16 +1570,16 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="H8" t="n">
         <v>3.25</v>
       </c>
       <c r="I8" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="J8" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K8" t="n">
         <v>2.05</v>
@@ -1588,10 +1588,10 @@
         <v>3.6</v>
       </c>
       <c r="M8" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O8" t="n">
         <v>1.33</v>
@@ -1602,10 +1602,10 @@
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="T8" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr"/>
@@ -1646,10 +1646,10 @@
         <v>34</v>
       </c>
       <c r="AI8" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AJ8" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AK8" t="n">
         <v>15</v>
@@ -1664,7 +1664,7 @@
         <v>8.5</v>
       </c>
       <c r="AO8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP8" t="n">
         <v>11</v>
@@ -1673,7 +1673,7 @@
         <v>29</v>
       </c>
       <c r="AR8" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AS8" t="n">
         <v>34</v>
@@ -1711,22 +1711,22 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H9" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I9" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="J9" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K9" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L9" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M9" t="n">
         <v>1.08</v>
@@ -1763,10 +1763,10 @@
         <v>2.5</v>
       </c>
       <c r="AA9" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="AB9" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AC9" t="n">
         <v>7</v>
@@ -1787,7 +1787,7 @@
         <v>34</v>
       </c>
       <c r="AI9" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AJ9" t="n">
         <v>6</v>
@@ -1808,7 +1808,7 @@
         <v>15</v>
       </c>
       <c r="AP9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ9" t="n">
         <v>34</v>
@@ -1855,53 +1855,53 @@
         <v>2.15</v>
       </c>
       <c r="H10" t="n">
-        <v>3.05</v>
+        <v>2.92</v>
       </c>
       <c r="I10" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="J10" t="n">
         <v>2.77</v>
       </c>
       <c r="K10" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="L10" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="M10" t="n">
         <v>1.1</v>
       </c>
       <c r="N10" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="O10" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="P10" t="n">
-        <v>2.57</v>
+        <v>2.52</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="T10" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="X10" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="AA10" t="n">
         <v>2</v>
@@ -1913,28 +1913,28 @@
         <v>6.2</v>
       </c>
       <c r="AD10" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AF10" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG10" t="n">
         <v>20</v>
       </c>
       <c r="AH10" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AI10" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="AJ10" t="n">
-        <v>6.1</v>
+        <v>5.8</v>
       </c>
       <c r="AK10" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AL10" t="n">
         <v>100</v>
@@ -1946,19 +1946,19 @@
         <v>7.9</v>
       </c>
       <c r="AO10" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AP10" t="n">
         <v>12.5</v>
       </c>
       <c r="AQ10" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AR10" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AS10" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11">
@@ -2028,15 +2028,15 @@
         <v>1.85</v>
       </c>
       <c r="T11" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="X11" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Y11" t="n">
         <v>1.36</v>
@@ -2143,31 +2143,31 @@
         <v>3.5</v>
       </c>
       <c r="J12" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="K12" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="L12" t="n">
         <v>4.75</v>
       </c>
       <c r="M12" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="N12" t="n">
         <v>7</v>
       </c>
       <c r="O12" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="P12" t="n">
         <v>2.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="R12" t="n">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="S12" t="n">
         <v>2.6</v>
@@ -2181,7 +2181,7 @@
         <v>5.5</v>
       </c>
       <c r="X12" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="Y12" t="n">
         <v>1.57</v>
@@ -2193,7 +2193,7 @@
         <v>2.25</v>
       </c>
       <c r="AB12" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="AC12" t="n">
         <v>5.5</v>
@@ -2279,42 +2279,42 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="H13" t="n">
         <v>3.1</v>
       </c>
       <c r="I13" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="J13" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K13" t="n">
         <v>2.05</v>
       </c>
       <c r="L13" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M13" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O13" t="n">
         <v>1.33</v>
       </c>
       <c r="P13" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr"/>
       <c r="S13" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="T13" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr"/>
@@ -2322,7 +2322,7 @@
         <v>3.75</v>
       </c>
       <c r="X13" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="Y13" t="n">
         <v>1.44</v>
@@ -2334,28 +2334,28 @@
         <v>1.8</v>
       </c>
       <c r="AB13" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="AC13" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE13" t="n">
         <v>10</v>
       </c>
       <c r="AF13" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG13" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AH13" t="n">
         <v>34</v>
       </c>
       <c r="AI13" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AJ13" t="n">
         <v>6</v>
@@ -2367,7 +2367,7 @@
         <v>51</v>
       </c>
       <c r="AM13" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AN13" t="n">
         <v>8.5</v>
@@ -2376,10 +2376,10 @@
         <v>13</v>
       </c>
       <c r="AP13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AQ13" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR13" t="n">
         <v>23</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X6"/>
+  <dimension ref="A1:AS13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -496,69 +496,174 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
+          <t>Odd_Over05_FT</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Under05_FT</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
           <t>Odd_Over15_FT</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Odd_Under15_FT</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Over2_FT</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Under2_FT</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Odd_Over25_FT</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Odd_Under25_FT</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Over3_FT</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Under3_FT</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Odd_Over35_FT</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>Odd_Under35_FT</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Odd_Over05_HT</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Odd_Under05_HT</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Odd_BTTS_Yes</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Odd_BTTS_No</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_Over05_FT</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_Under05_FT</t>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-0</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_2-0</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_2-1</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_3-0</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_3-1</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_3-2</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-0</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-1</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_2-2</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_3-3</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_4-4</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-1</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-2</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-2</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-3</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-3</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_2-3</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>UFKtLiUj</t>
+          <t>dAAvOIE4</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -568,79 +673,146 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA B</t>
+          <t>ARGENTINA - TORNEO BETANO</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Real Cundinamarca</t>
+          <t>Tigre</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Boca Juniors</t>
+          <t>Central Cordoba</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.6</v>
+        <v>2.25</v>
       </c>
       <c r="H2" t="n">
-        <v>3.55</v>
+        <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="J2" t="n">
-        <v>2.15</v>
+        <v>3.1</v>
       </c>
       <c r="K2" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L2" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N2" t="n">
+        <v>7</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S2" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="U2" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="W2" t="n">
+        <v>5</v>
+      </c>
+      <c r="X2" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AA2" t="n">
         <v>2.1</v>
       </c>
-      <c r="L2" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="N2" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T2" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
+      <c r="AB2" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>67</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>501</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>13</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>IeNzP0VO</t>
+          <t>foUq2yho</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -650,79 +822,146 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA B</t>
+          <t>ARGENTINA - TORNEO BETANO</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Atletico F.C.</t>
+          <t>Union de Santa Fe</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Quindio</t>
+          <t>Banfield</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.77</v>
+        <v>2.05</v>
       </c>
       <c r="H3" t="n">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="I3" t="n">
-        <v>2.37</v>
+        <v>4.5</v>
       </c>
       <c r="J3" t="n">
-        <v>3.35</v>
+        <v>2.88</v>
       </c>
       <c r="K3" t="n">
-        <v>2.07</v>
+        <v>1.83</v>
       </c>
       <c r="L3" t="n">
-        <v>2.95</v>
+        <v>5.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.35</v>
+        <v>1.17</v>
       </c>
       <c r="N3" t="n">
-        <v>2.7</v>
+        <v>5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.93</v>
+        <v>1.67</v>
       </c>
       <c r="P3" t="n">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.35</v>
+        <v>2.1</v>
       </c>
       <c r="R3" t="n">
-        <v>1.23</v>
+        <v>1.78</v>
       </c>
       <c r="S3" t="n">
-        <v>1.39</v>
+        <v>3.1</v>
       </c>
       <c r="T3" t="n">
-        <v>2.57</v>
+        <v>1.36</v>
       </c>
       <c r="U3" t="n">
-        <v>1.8</v>
+        <v>5.6</v>
       </c>
       <c r="V3" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
+        <v>1.15</v>
+      </c>
+      <c r="W3" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X3" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>6</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>101</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>501</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>67</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>bTc9w0pI</t>
+          <t>O2FcDMHq</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -732,79 +971,146 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>21:15</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA B</t>
+          <t>ARGENTINA - TORNEO BETANO</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Real Santander</t>
+          <t>Atl. Tucuman</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Leones</t>
+          <t>Velez Sarsfield</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.22</v>
+        <v>2.63</v>
       </c>
       <c r="H4" t="n">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="I4" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J4" t="n">
-        <v>2.82</v>
+        <v>3.5</v>
       </c>
       <c r="K4" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="L4" t="n">
+        <v>4</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N4" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q4" t="n">
         <v>2.05</v>
       </c>
-      <c r="L4" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="N4" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2.92</v>
-      </c>
       <c r="R4" t="n">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="S4" t="n">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="T4" t="n">
-        <v>2.52</v>
+        <v>1.44</v>
       </c>
       <c r="U4" t="n">
-        <v>1.65</v>
+        <v>4.5</v>
       </c>
       <c r="V4" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr"/>
+        <v>1.21</v>
+      </c>
+      <c r="W4" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X4" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>81</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>501</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>8K2pq4Gt</t>
+          <t>SWTRIrfM</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -814,83 +1120,146 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>21:15</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA B</t>
+          <t>ARGENTINA - TORNEO BETANO</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Patriotas</t>
+          <t>San Martin S.J.</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Inter Palmira</t>
+          <t>Platense</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.02</v>
+        <v>2.88</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="I5" t="n">
-        <v>3.85</v>
+        <v>2.88</v>
       </c>
       <c r="J5" t="n">
-        <v>2.77</v>
+        <v>4</v>
       </c>
       <c r="K5" t="n">
-        <v>1.87</v>
+        <v>1.73</v>
       </c>
       <c r="L5" t="n">
-        <v>4.45</v>
+        <v>4</v>
       </c>
       <c r="M5" t="n">
-        <v>1.47</v>
+        <v>1.17</v>
       </c>
       <c r="N5" t="n">
-        <v>2.35</v>
+        <v>5</v>
       </c>
       <c r="O5" t="n">
-        <v>2.35</v>
+        <v>1.8</v>
       </c>
       <c r="P5" t="n">
-        <v>1.47</v>
+        <v>1.91</v>
       </c>
       <c r="Q5" t="n">
-        <v>4</v>
+        <v>2.05</v>
       </c>
       <c r="R5" t="n">
-        <v>1.16</v>
+        <v>1.8</v>
       </c>
       <c r="S5" t="n">
-        <v>1.55</v>
+        <v>3.6</v>
       </c>
       <c r="T5" t="n">
-        <v>2.15</v>
+        <v>1.29</v>
       </c>
       <c r="U5" t="n">
-        <v>2.05</v>
+        <v>7</v>
       </c>
       <c r="V5" t="n">
-        <v>1.62</v>
+        <v>1.1</v>
       </c>
       <c r="W5" t="n">
-        <v>1.1</v>
+        <v>9</v>
       </c>
       <c r="X5" t="n">
-        <v>6.2</v>
+        <v>1.07</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>6</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>126</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>101</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>pO2TreMc</t>
+          <t>IVRT8W64</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -900,74 +1269,1124 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>22:00</t>
+          <t>18:10</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA B</t>
+          <t>ARGENTINA - PRIMERA NACIONAL</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Barranquilla</t>
+          <t>Atletico Atlanta</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Jaguares de Cordoba</t>
+          <t>Los Andes</t>
         </is>
       </c>
       <c r="G6" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I6" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="L6" t="n">
+        <v>6</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N6" t="n">
+        <v>5</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="n">
+        <v>7</v>
+      </c>
+      <c r="X6" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>126</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>101</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>WzcRDIl1</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>17/03/2025</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>21:45</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>ARGENTINA - PRIMERA NACIONAL</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Temperley</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Gimnasia Mendoza</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I7" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J7" t="n">
         <v>3.2</v>
       </c>
-      <c r="H6" t="n">
+      <c r="K7" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="L7" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N7" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="n">
+        <v>7</v>
+      </c>
+      <c r="X7" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>6</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>101</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>101</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>fwOq1iHq</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>17/03/2025</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>ECUADOR - LIGA PRO</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Tecnico U.</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Barcelona SC</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L8" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N8" t="n">
+        <v>10</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="X8" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>301</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>zRdXA2EO</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>17/03/2025</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>20:30</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>PARAGUAY - COPA DE PRIMERA</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Nacional Asuncion</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Sportivo Trinidense</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2</v>
+      </c>
+      <c r="L9" t="n">
+        <v>4</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N9" t="n">
+        <v>8</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="n">
+        <v>4</v>
+      </c>
+      <c r="X9" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>6</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>351</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>nTSZuYI6</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>17/03/2025</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>SERBIA - SUPER LIGA</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Novi Pazar</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Zeleznicar Pancevo</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="I10" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="L10" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N10" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="X10" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>37</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>6</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>100</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>55</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>40</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Qi3bH3cB</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>17/03/2025</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>SPAIN - LALIGA2</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Castellon</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Dep. La Coruna</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I11" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L11" t="n">
+        <v>4</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N11" t="n">
+        <v>13</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="n">
         <v>3</v>
       </c>
-      <c r="I6" t="n">
+      <c r="X11" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>7</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>151</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>I1AwRPa3</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>17/03/2025</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>URUGUAY - LIGA AUF URUGUAYA</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Cerro Largo</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>CA Cerro</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H12" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I12" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L12" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N12" t="n">
+        <v>7</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S12" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="U12" t="inlineStr"/>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X12" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Z12" t="n">
         <v>2.25</v>
       </c>
-      <c r="J6" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="K6" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L6" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="N6" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="O6" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T6" t="n">
+      <c r="AA12" t="n">
         <v>2.25</v>
       </c>
-      <c r="U6" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="W6" t="inlineStr"/>
-      <c r="X6" t="inlineStr"/>
+      <c r="AB12" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>81</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>101</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4U24JPvB</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>17/03/2025</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>21:15</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>URUGUAY - LIGA AUF URUGUAYA</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>River Plate</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Boston River</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H13" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L13" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N13" t="n">
+        <v>9</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="U13" t="inlineStr"/>
+      <c r="V13" t="inlineStr"/>
+      <c r="W13" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="X13" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>6</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>301</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Jogos_da_Semana_FlashScore_2025-03-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS13"/>
+  <dimension ref="A1:AS14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -710,10 +710,10 @@
         <v>4.33</v>
       </c>
       <c r="M2" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N2" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O2" t="n">
         <v>1.5</v>
@@ -722,10 +722,10 @@
         <v>2.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R2" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S2" t="n">
         <v>2.6</v>
@@ -734,16 +734,16 @@
         <v>1.48</v>
       </c>
       <c r="U2" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="V2" t="n">
         <v>1.22</v>
       </c>
       <c r="W2" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="X2" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="Y2" t="n">
         <v>1.57</v>
@@ -844,25 +844,25 @@
         <v>2.05</v>
       </c>
       <c r="H3" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="I3" t="n">
         <v>4.5</v>
       </c>
       <c r="J3" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K3" t="n">
         <v>1.83</v>
       </c>
       <c r="L3" t="n">
+        <v>5</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N3" t="n">
         <v>5.5</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="N3" t="n">
-        <v>5</v>
       </c>
       <c r="O3" t="n">
         <v>1.67</v>
@@ -889,10 +889,10 @@
         <v>1.15</v>
       </c>
       <c r="W3" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X3" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="Y3" t="n">
         <v>1.67</v>
@@ -907,7 +907,7 @@
         <v>1.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AD3" t="n">
         <v>8</v>
@@ -943,7 +943,7 @@
         <v>8</v>
       </c>
       <c r="AO3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP3" t="n">
         <v>17</v>
@@ -952,7 +952,7 @@
         <v>51</v>
       </c>
       <c r="AR3" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS3" t="n">
         <v>67</v>
@@ -990,73 +990,73 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="H4" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="I4" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J4" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K4" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="L4" t="n">
         <v>4</v>
       </c>
       <c r="M4" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N4" t="n">
+        <v>6</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S4" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="U4" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="W4" t="n">
+        <v>5</v>
+      </c>
+      <c r="X4" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AC4" t="n">
         <v>6.5</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S4" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="T4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="U4" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="W4" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="X4" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>6</v>
       </c>
       <c r="AD4" t="n">
         <v>11</v>
@@ -1065,10 +1065,10 @@
         <v>11</v>
       </c>
       <c r="AF4" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AH4" t="n">
         <v>41</v>
@@ -1080,19 +1080,19 @@
         <v>5.5</v>
       </c>
       <c r="AK4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL4" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AM4" t="n">
         <v>501</v>
       </c>
       <c r="AN4" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AO4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP4" t="n">
         <v>12</v>
@@ -1157,16 +1157,16 @@
         <v>4</v>
       </c>
       <c r="M5" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="N5" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="P5" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="Q5" t="n">
         <v>2.05</v>
@@ -1175,10 +1175,10 @@
         <v>1.8</v>
       </c>
       <c r="S5" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="T5" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="U5" t="n">
         <v>7</v>
@@ -1193,10 +1193,10 @@
         <v>1.07</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="Z5" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="AA5" t="n">
         <v>2.63</v>
@@ -1475,10 +1475,10 @@
         <v>1.1</v>
       </c>
       <c r="Y7" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="Z7" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="AA7" t="n">
         <v>2.5</v>
@@ -1588,10 +1588,10 @@
         <v>3.6</v>
       </c>
       <c r="M8" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O8" t="n">
         <v>1.33</v>
@@ -1602,10 +1602,10 @@
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="T8" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr"/>
@@ -1823,7 +1823,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>nTSZuYI6</t>
+          <t>ChaXVScT</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1838,133 +1838,133 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>SERBIA - SUPER LIGA</t>
+          <t>ROMANIA - SUPERLIGA</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Novi Pazar</t>
+          <t>Sepsi Sf. Gheorghe</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Zeleznicar Pancevo</t>
+          <t>Gloria Buzau</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.02</v>
+        <v>1.48</v>
       </c>
       <c r="H10" t="n">
-        <v>3.05</v>
+        <v>4</v>
       </c>
       <c r="I10" t="n">
-        <v>3.65</v>
+        <v>6.25</v>
       </c>
       <c r="J10" t="n">
-        <v>2.65</v>
+        <v>2.05</v>
       </c>
       <c r="K10" t="n">
-        <v>2.02</v>
+        <v>2.2</v>
       </c>
       <c r="L10" t="n">
-        <v>4.25</v>
+        <v>7</v>
       </c>
       <c r="M10" t="n">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="N10" t="n">
-        <v>5.9</v>
+        <v>11</v>
       </c>
       <c r="O10" t="n">
-        <v>1.45</v>
+        <v>1.3</v>
       </c>
       <c r="P10" t="n">
-        <v>2.57</v>
+        <v>3.4</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="n">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="T10" t="n">
-        <v>1.55</v>
+        <v>1.85</v>
       </c>
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="n">
-        <v>4.05</v>
+        <v>3.4</v>
       </c>
       <c r="X10" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="Z10" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="AA10" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AB10" t="n">
-        <v>1.72</v>
+        <v>1.67</v>
       </c>
       <c r="AC10" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD10" t="n">
         <v>6</v>
       </c>
-      <c r="AD10" t="n">
-        <v>8.75</v>
-      </c>
       <c r="AE10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AF10" t="n">
         <v>9</v>
       </c>
-      <c r="AF10" t="n">
-        <v>18.5</v>
-      </c>
       <c r="AG10" t="n">
-        <v>18.5</v>
+        <v>13</v>
       </c>
       <c r="AH10" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="AI10" t="n">
-        <v>5.9</v>
+        <v>10</v>
       </c>
       <c r="AJ10" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AK10" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AL10" t="n">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="AM10" t="n">
-        <v>1000</v>
+        <v>351</v>
       </c>
       <c r="AN10" t="n">
-        <v>8.5</v>
+        <v>15</v>
       </c>
       <c r="AO10" t="n">
-        <v>18.5</v>
+        <v>34</v>
       </c>
       <c r="AP10" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AQ10" t="n">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="AR10" t="n">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="AS10" t="n">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Qi3bH3cB</t>
+          <t>nTSZuYI6</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1974,138 +1974,138 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>SERBIA - SUPER LIGA</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Castellon</t>
+          <t>Novi Pazar</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Dep. La Coruna</t>
+          <t>Zeleznicar Pancevo</t>
         </is>
       </c>
       <c r="G11" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I11" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="K11" t="n">
         <v>2.05</v>
       </c>
-      <c r="H11" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I11" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="K11" t="n">
-        <v>2.2</v>
-      </c>
       <c r="L11" t="n">
-        <v>4</v>
+        <v>4.7</v>
       </c>
       <c r="M11" t="n">
-        <v>1.04</v>
+        <v>1.09</v>
       </c>
       <c r="N11" t="n">
-        <v>13</v>
+        <v>6.2</v>
       </c>
       <c r="O11" t="n">
-        <v>1.25</v>
+        <v>1.42</v>
       </c>
       <c r="P11" t="n">
-        <v>3.75</v>
+        <v>2.67</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="n">
-        <v>1.83</v>
+        <v>2.2</v>
       </c>
       <c r="T11" t="n">
-        <v>2.03</v>
+        <v>1.6</v>
       </c>
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="n">
-        <v>3</v>
+        <v>3.85</v>
       </c>
       <c r="X11" t="n">
-        <v>1.36</v>
+        <v>1.22</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.36</v>
+        <v>1.45</v>
       </c>
       <c r="Z11" t="n">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="AA11" t="n">
-        <v>1.67</v>
+        <v>2.02</v>
       </c>
       <c r="AB11" t="n">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="AC11" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AE11" t="n">
         <v>8.5</v>
       </c>
-      <c r="AD11" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>9</v>
-      </c>
       <c r="AF11" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AG11" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="AI11" t="n">
-        <v>12</v>
+        <v>6.2</v>
       </c>
       <c r="AJ11" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="AK11" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AL11" t="n">
-        <v>41</v>
+        <v>110</v>
       </c>
       <c r="AM11" t="n">
-        <v>151</v>
+        <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>12</v>
+        <v>9.5</v>
       </c>
       <c r="AO11" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AP11" t="n">
-        <v>12</v>
+        <v>14.5</v>
       </c>
       <c r="AQ11" t="n">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="AR11" t="n">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="AS11" t="n">
-        <v>34</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>I1AwRPa3</t>
+          <t>Qi3bH3cB</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2115,124 +2115,120 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>URUGUAY - LIGA AUF URUGUAYA</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Cerro Largo</t>
+          <t>Castellon</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>CA Cerro</t>
+          <t>Dep. La Coruna</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="H12" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="I12" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="J12" t="n">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="K12" t="n">
-        <v>1.91</v>
+        <v>2.25</v>
       </c>
       <c r="L12" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M12" t="n">
-        <v>1.1</v>
+        <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="O12" t="n">
-        <v>1.53</v>
+        <v>1.25</v>
       </c>
       <c r="P12" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="Q12" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="T12" t="n">
         <v>2.03</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="S12" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="T12" t="n">
-        <v>1.48</v>
       </c>
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr"/>
       <c r="W12" t="n">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="X12" t="n">
-        <v>1.14</v>
+        <v>1.36</v>
       </c>
       <c r="Y12" t="n">
-        <v>1.57</v>
+        <v>1.36</v>
       </c>
       <c r="Z12" t="n">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="AA12" t="n">
-        <v>2.25</v>
+        <v>1.67</v>
       </c>
       <c r="AB12" t="n">
-        <v>1.57</v>
+        <v>2.1</v>
       </c>
       <c r="AC12" t="n">
-        <v>5.5</v>
+        <v>8.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AE12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>7</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>151</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AO12" t="n">
         <v>19</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>21</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>81</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>101</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>15</v>
       </c>
       <c r="AP12" t="n">
         <v>13</v>
@@ -2241,16 +2237,16 @@
         <v>41</v>
       </c>
       <c r="AR12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AS12" t="n">
         <v>34</v>
-      </c>
-      <c r="AS12" t="n">
-        <v>41</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>4U24JPvB</t>
+          <t>I1AwRPa3</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2260,7 +2256,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>21:15</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -2270,121 +2266,266 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>River Plate</t>
+          <t>Cerro Largo</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Boston River</t>
+          <t>CA Cerro</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="H13" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I13" t="n">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="J13" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="K13" t="n">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="L13" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M13" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="N13" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O13" t="n">
-        <v>1.36</v>
+        <v>1.53</v>
       </c>
       <c r="P13" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
+        <v>2.38</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.83</v>
+      </c>
       <c r="S13" t="n">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="T13" t="n">
-        <v>1.7</v>
+        <v>1.48</v>
       </c>
       <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr"/>
       <c r="W13" t="n">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="X13" t="n">
-        <v>1.25</v>
+        <v>1.14</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="Z13" t="n">
-        <v>2.63</v>
+        <v>2.25</v>
       </c>
       <c r="AA13" t="n">
-        <v>1.83</v>
+        <v>2.25</v>
       </c>
       <c r="AB13" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AC13" t="n">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>12</v>
+        <v>8.5</v>
       </c>
       <c r="AE13" t="n">
         <v>10</v>
       </c>
       <c r="AF13" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AG13" t="n">
         <v>21</v>
       </c>
       <c r="AH13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>81</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>101</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR13" t="n">
         <v>34</v>
       </c>
-      <c r="AI13" t="n">
+      <c r="AS13" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4U24JPvB</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>17/03/2025</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>21:15</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>URUGUAY - LIGA AUF URUGUAYA</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>River Plate</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Boston River</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J14" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L14" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N14" t="n">
+        <v>9</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="U14" t="inlineStr"/>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="X14" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI14" t="n">
         <v>8.5</v>
       </c>
-      <c r="AJ13" t="n">
+      <c r="AJ14" t="n">
         <v>6</v>
       </c>
-      <c r="AK13" t="n">
+      <c r="AK14" t="n">
         <v>15</v>
       </c>
-      <c r="AL13" t="n">
+      <c r="AL14" t="n">
         <v>51</v>
       </c>
-      <c r="AM13" t="n">
+      <c r="AM14" t="n">
         <v>301</v>
       </c>
-      <c r="AN13" t="n">
+      <c r="AN14" t="n">
         <v>8.5</v>
       </c>
-      <c r="AO13" t="n">
+      <c r="AO14" t="n">
         <v>13</v>
       </c>
-      <c r="AP13" t="n">
+      <c r="AP14" t="n">
         <v>11</v>
       </c>
-      <c r="AQ13" t="n">
+      <c r="AQ14" t="n">
         <v>29</v>
       </c>
-      <c r="AR13" t="n">
+      <c r="AR14" t="n">
         <v>23</v>
       </c>
-      <c r="AS13" t="n">
+      <c r="AS14" t="n">
         <v>34</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2025-03-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-17.xlsx
@@ -692,22 +692,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="H2" t="n">
         <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="J2" t="n">
-        <v>3.1</v>
+        <v>2.87</v>
       </c>
       <c r="K2" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="L2" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M2" t="n">
         <v>1.11</v>
@@ -716,34 +716,34 @@
         <v>6.5</v>
       </c>
       <c r="O2" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="S2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T2" t="n">
         <v>1.5</v>
       </c>
-      <c r="P2" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>2</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="S2" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="T2" t="n">
-        <v>1.48</v>
-      </c>
       <c r="U2" t="n">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="V2" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="W2" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="X2" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="Y2" t="n">
         <v>1.57</v>
@@ -752,22 +752,22 @@
         <v>2.25</v>
       </c>
       <c r="AA2" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="AC2" t="n">
         <v>6</v>
       </c>
       <c r="AD2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE2" t="n">
         <v>9.5</v>
       </c>
-      <c r="AE2" t="n">
-        <v>10</v>
-      </c>
       <c r="AF2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG2" t="n">
         <v>21</v>
@@ -782,7 +782,7 @@
         <v>6</v>
       </c>
       <c r="AK2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL2" t="n">
         <v>67</v>
@@ -791,13 +791,13 @@
         <v>501</v>
       </c>
       <c r="AN2" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AO2" t="n">
         <v>17</v>
       </c>
       <c r="AP2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AQ2" t="n">
         <v>41</v>
@@ -841,28 +841,28 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="H3" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="I3" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="J3" t="n">
         <v>3</v>
       </c>
       <c r="K3" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="L3" t="n">
         <v>5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N3" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="O3" t="n">
         <v>1.67</v>
@@ -877,16 +877,16 @@
         <v>1.78</v>
       </c>
       <c r="S3" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="T3" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="U3" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="V3" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="W3" t="n">
         <v>7</v>
@@ -895,10 +895,10 @@
         <v>1.1</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="Z3" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="AA3" t="n">
         <v>2.5</v>
@@ -913,7 +913,7 @@
         <v>8</v>
       </c>
       <c r="AE3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF3" t="n">
         <v>19</v>
@@ -940,7 +940,7 @@
         <v>501</v>
       </c>
       <c r="AN3" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AO3" t="n">
         <v>19</v>
@@ -1002,16 +1002,16 @@
         <v>3.4</v>
       </c>
       <c r="K4" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="L4" t="n">
         <v>4</v>
       </c>
       <c r="M4" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N4" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O4" t="n">
         <v>1.5</v>
@@ -1020,10 +1020,10 @@
         <v>2.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.98</v>
+        <v>1.94</v>
       </c>
       <c r="R4" t="n">
-        <v>1.88</v>
+        <v>1.79</v>
       </c>
       <c r="S4" t="n">
         <v>2.6</v>
@@ -1038,10 +1038,10 @@
         <v>1.22</v>
       </c>
       <c r="W4" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="X4" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="Y4" t="n">
         <v>1.57</v>
@@ -1139,19 +1139,19 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="H5" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="I5" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="J5" t="n">
         <v>4</v>
       </c>
       <c r="K5" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="L5" t="n">
         <v>4</v>
@@ -1181,7 +1181,7 @@
         <v>1.25</v>
       </c>
       <c r="U5" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="V5" t="n">
         <v>1.1</v>
@@ -1199,10 +1199,10 @@
         <v>1.95</v>
       </c>
       <c r="AA5" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AB5" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AC5" t="n">
         <v>5.5</v>
@@ -1217,13 +1217,13 @@
         <v>34</v>
       </c>
       <c r="AG5" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AH5" t="n">
         <v>51</v>
       </c>
       <c r="AI5" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="AJ5" t="n">
         <v>6</v>
@@ -1250,7 +1250,7 @@
         <v>34</v>
       </c>
       <c r="AR5" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AS5" t="n">
         <v>51</v>
@@ -1312,32 +1312,32 @@
         <v>5</v>
       </c>
       <c r="O6" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="P6" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="T6" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="X6" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="Y6" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="Z6" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="AA6" t="n">
         <v>2.63</v>
@@ -1429,16 +1429,16 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H7" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="I7" t="n">
         <v>3.7</v>
       </c>
       <c r="J7" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K7" t="n">
         <v>1.8</v>
@@ -1447,10 +1447,10 @@
         <v>4.75</v>
       </c>
       <c r="M7" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N7" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="O7" t="n">
         <v>1.67</v>
@@ -1502,7 +1502,7 @@
         <v>26</v>
       </c>
       <c r="AH7" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI7" t="n">
         <v>5</v>
@@ -1523,7 +1523,7 @@
         <v>7</v>
       </c>
       <c r="AO7" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP7" t="n">
         <v>15</v>
@@ -1570,16 +1570,16 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.45</v>
+        <v>2.38</v>
       </c>
       <c r="H8" t="n">
         <v>3.25</v>
       </c>
       <c r="I8" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="J8" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K8" t="n">
         <v>2.05</v>
@@ -1602,10 +1602,10 @@
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="T8" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr"/>
@@ -1643,13 +1643,13 @@
         <v>21</v>
       </c>
       <c r="AH8" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI8" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AJ8" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AK8" t="n">
         <v>15</v>
@@ -1658,13 +1658,13 @@
         <v>51</v>
       </c>
       <c r="AM8" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AN8" t="n">
         <v>8.5</v>
       </c>
       <c r="AO8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP8" t="n">
         <v>11</v>
@@ -2152,13 +2152,13 @@
         <v>4</v>
       </c>
       <c r="M12" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N12" t="n">
         <v>13</v>
       </c>
       <c r="O12" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P12" t="n">
         <v>3.75</v>
@@ -2177,7 +2177,7 @@
         <v>3</v>
       </c>
       <c r="X12" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Y12" t="n">
         <v>1.36</v>
@@ -2287,7 +2287,7 @@
         <v>3</v>
       </c>
       <c r="K13" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="L13" t="n">
         <v>4.5</v>
@@ -2305,10 +2305,10 @@
         <v>2.38</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.03</v>
+        <v>1.97</v>
       </c>
       <c r="R13" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="S13" t="n">
         <v>2.6</v>
@@ -2452,10 +2452,10 @@
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr"/>
       <c r="S14" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="T14" t="n">
-        <v>1.7</v>
+        <v>1.63</v>
       </c>
       <c r="U14" t="inlineStr"/>
       <c r="V14" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-03-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-17.xlsx
@@ -695,25 +695,25 @@
         <v>2.15</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I2" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="J2" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="K2" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="L2" t="n">
         <v>4.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O2" t="n">
         <v>1.44</v>
@@ -722,34 +722,34 @@
         <v>2.63</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="R2" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="S2" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="T2" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="U2" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="V2" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="W2" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="X2" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Z2" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AA2" t="n">
         <v>2.05</v>
@@ -773,16 +773,16 @@
         <v>21</v>
       </c>
       <c r="AH2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AJ2" t="n">
         <v>6</v>
       </c>
       <c r="AK2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL2" t="n">
         <v>67</v>
@@ -797,7 +797,7 @@
         <v>17</v>
       </c>
       <c r="AP2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AQ2" t="n">
         <v>41</v>
@@ -841,28 +841,28 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="H3" t="n">
         <v>2.8</v>
       </c>
       <c r="I3" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="J3" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="K3" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="L3" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M3" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="N3" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="O3" t="n">
         <v>1.67</v>
@@ -898,7 +898,7 @@
         <v>1.73</v>
       </c>
       <c r="Z3" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AA3" t="n">
         <v>2.5</v>
@@ -910,16 +910,16 @@
         <v>5</v>
       </c>
       <c r="AD3" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE3" t="n">
         <v>11</v>
       </c>
       <c r="AF3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AH3" t="n">
         <v>41</v>
@@ -943,19 +943,19 @@
         <v>7.5</v>
       </c>
       <c r="AO3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AQ3" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR3" t="n">
         <v>41</v>
       </c>
       <c r="AS3" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4">
@@ -990,49 +990,49 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="H4" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="I4" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="J4" t="n">
         <v>3.4</v>
       </c>
       <c r="K4" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="L4" t="n">
         <v>4</v>
       </c>
       <c r="M4" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N4" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O4" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P4" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.94</v>
+        <v>2.03</v>
       </c>
       <c r="R4" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="S4" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="T4" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="U4" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="V4" t="n">
         <v>1.22</v>
@@ -1044,22 +1044,22 @@
         <v>1.14</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="Z4" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AA4" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AB4" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="AC4" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AD4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE4" t="n">
         <v>11</v>
@@ -1080,7 +1080,7 @@
         <v>5.5</v>
       </c>
       <c r="AK4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL4" t="n">
         <v>67</v>
@@ -1095,13 +1095,13 @@
         <v>15</v>
       </c>
       <c r="AP4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ4" t="n">
         <v>34</v>
       </c>
       <c r="AR4" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AS4" t="n">
         <v>41</v>
@@ -1139,7 +1139,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="H5" t="n">
         <v>2.75</v>
@@ -1151,7 +1151,7 @@
         <v>4</v>
       </c>
       <c r="K5" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="L5" t="n">
         <v>4</v>
@@ -1181,22 +1181,22 @@
         <v>1.25</v>
       </c>
       <c r="U5" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="V5" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="W5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="X5" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="Z5" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="AA5" t="n">
         <v>2.75</v>
@@ -1208,7 +1208,7 @@
         <v>5.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE5" t="n">
         <v>13</v>
@@ -1223,16 +1223,16 @@
         <v>51</v>
       </c>
       <c r="AI5" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AJ5" t="n">
         <v>6</v>
       </c>
       <c r="AK5" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AL5" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AM5" t="n">
         <v>101</v>
@@ -1447,10 +1447,10 @@
         <v>4.75</v>
       </c>
       <c r="M7" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="N7" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="O7" t="n">
         <v>1.67</v>
@@ -1570,28 +1570,28 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="H8" t="n">
         <v>3.25</v>
       </c>
       <c r="I8" t="n">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="J8" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="K8" t="n">
         <v>2.05</v>
       </c>
       <c r="L8" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M8" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O8" t="n">
         <v>1.33</v>
@@ -1628,22 +1628,22 @@
         <v>1.83</v>
       </c>
       <c r="AC8" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AD8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AE8" t="n">
         <v>10</v>
       </c>
       <c r="AF8" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG8" t="n">
         <v>21</v>
       </c>
       <c r="AH8" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI8" t="n">
         <v>9</v>
@@ -1664,7 +1664,7 @@
         <v>8.5</v>
       </c>
       <c r="AO8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP8" t="n">
         <v>11</v>
@@ -1743,18 +1743,18 @@
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="T9" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr"/>
       <c r="W9" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="X9" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="Y9" t="n">
         <v>1.5</v>
@@ -2275,22 +2275,22 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="H13" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I13" t="n">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="J13" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="K13" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="L13" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="M13" t="n">
         <v>1.1</v>
@@ -2305,10 +2305,10 @@
         <v>2.38</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.97</v>
+        <v>2.03</v>
       </c>
       <c r="R13" t="n">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="S13" t="n">
         <v>2.6</v>
@@ -2325,28 +2325,28 @@
         <v>1.14</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="Z13" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AA13" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AB13" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AC13" t="n">
         <v>5.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE13" t="n">
         <v>10</v>
       </c>
       <c r="AF13" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG13" t="n">
         <v>21</v>
@@ -2361,7 +2361,7 @@
         <v>6.5</v>
       </c>
       <c r="AK13" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL13" t="n">
         <v>81</v>
@@ -2370,22 +2370,22 @@
         <v>101</v>
       </c>
       <c r="AN13" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AO13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP13" t="n">
         <v>15</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>13</v>
       </c>
       <c r="AQ13" t="n">
         <v>41</v>
       </c>
       <c r="AR13" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AS13" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14">
@@ -2455,7 +2455,7 @@
         <v>2.15</v>
       </c>
       <c r="T14" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="U14" t="inlineStr"/>
       <c r="V14" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-03-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-17.xlsx
@@ -990,22 +990,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="H4" t="n">
         <v>2.88</v>
       </c>
       <c r="I4" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="J4" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K4" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="L4" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M4" t="n">
         <v>1.13</v>
@@ -1014,34 +1014,34 @@
         <v>6</v>
       </c>
       <c r="O4" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P4" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.03</v>
+        <v>2.1</v>
       </c>
       <c r="R4" t="n">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="S4" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="T4" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="U4" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="V4" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="W4" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="X4" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="Y4" t="n">
         <v>1.62</v>
@@ -1050,10 +1050,10 @@
         <v>2.2</v>
       </c>
       <c r="AA4" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AB4" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AC4" t="n">
         <v>6</v>
@@ -1074,7 +1074,7 @@
         <v>41</v>
       </c>
       <c r="AI4" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AJ4" t="n">
         <v>5.5</v>
@@ -1083,7 +1083,7 @@
         <v>19</v>
       </c>
       <c r="AL4" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AM4" t="n">
         <v>501</v>
@@ -1098,13 +1098,13 @@
         <v>13</v>
       </c>
       <c r="AQ4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR4" t="n">
         <v>34</v>
       </c>
       <c r="AS4" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5">
@@ -1139,34 +1139,34 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="H5" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="I5" t="n">
         <v>2.75</v>
       </c>
-      <c r="I5" t="n">
-        <v>2.9</v>
-      </c>
       <c r="J5" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="K5" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="L5" t="n">
         <v>4</v>
       </c>
       <c r="M5" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="N5" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="O5" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="P5" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Q5" t="n">
         <v>2.05</v>
@@ -1181,10 +1181,10 @@
         <v>1.25</v>
       </c>
       <c r="U5" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="V5" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="W5" t="n">
         <v>10</v>
@@ -1193,40 +1193,40 @@
         <v>1.06</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="Z5" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="AA5" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AB5" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AC5" t="n">
         <v>5.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AE5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF5" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG5" t="n">
         <v>41</v>
       </c>
       <c r="AH5" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI5" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AJ5" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AK5" t="n">
         <v>29</v>
@@ -1238,10 +1238,10 @@
         <v>101</v>
       </c>
       <c r="AN5" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AO5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP5" t="n">
         <v>13</v>
@@ -1253,7 +1253,7 @@
         <v>41</v>
       </c>
       <c r="AS5" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6">
@@ -1429,28 +1429,28 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="H7" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="I7" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="J7" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K7" t="n">
         <v>1.8</v>
       </c>
       <c r="L7" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M7" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N7" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="O7" t="n">
         <v>1.67</v>
@@ -1487,25 +1487,25 @@
         <v>1.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF7" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG7" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AH7" t="n">
         <v>51</v>
       </c>
       <c r="AI7" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AJ7" t="n">
         <v>6</v>
@@ -1520,7 +1520,7 @@
         <v>101</v>
       </c>
       <c r="AN7" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AO7" t="n">
         <v>15</v>
@@ -1570,16 +1570,16 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="H8" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I8" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="J8" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K8" t="n">
         <v>2.05</v>
@@ -1588,24 +1588,24 @@
         <v>3.4</v>
       </c>
       <c r="M8" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N8" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="O8" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P8" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="T8" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr"/>
@@ -1631,25 +1631,25 @@
         <v>8</v>
       </c>
       <c r="AD8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF8" t="n">
         <v>26</v>
       </c>
       <c r="AG8" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH8" t="n">
         <v>34</v>
       </c>
       <c r="AI8" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AJ8" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AK8" t="n">
         <v>15</v>
@@ -1658,19 +1658,19 @@
         <v>51</v>
       </c>
       <c r="AM8" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AN8" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AO8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AQ8" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR8" t="n">
         <v>23</v>
@@ -2452,18 +2452,18 @@
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr"/>
       <c r="S14" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="T14" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="U14" t="inlineStr"/>
       <c r="V14" t="inlineStr"/>
       <c r="W14" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="X14" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="Y14" t="n">
         <v>1.44</v>
